--- a/medicine/Psychotrope/Störtebeker_Braumanufaktur/Störtebeker_Braumanufaktur.xlsx
+++ b/medicine/Psychotrope/Störtebeker_Braumanufaktur/Störtebeker_Braumanufaktur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%B6rtebeker_Braumanufaktur</t>
+          <t>Störtebeker_Braumanufaktur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Störtebeker Braumanufaktur est une brasserie à Stralsund, dans le Land de Mecklembourg-Poméranie-Occidentale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%B6rtebeker_Braumanufaktur</t>
+          <t>Störtebeker_Braumanufaktur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Stralsunder Vereinsbrauerei est fondée en 1827 et est le fournisseur de la Cour pour les stations balnéaires de la Baltique. En raison de la demande croissante, un nouveau bâtiment est construit sur Greifswalder Chaussee, avec les dernières technologies, par exemple l'une des premières machines frigorifiques Linde.
 Après la Seconde Guerre mondiale, la société est maintenue et devient une Volkseigener Betrieb dans les années 1950. La technologie obsolète et la mauvaise situation de l'approvisionnement en matières premières de haute qualité entraînent une baisse de la qualité et la brasserie connaît un déclin qualitatif et, après le changement politique, également économique.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%B6rtebeker_Braumanufaktur</t>
+          <t>Störtebeker_Braumanufaktur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bières
 Stoertebeker Bernstein-Weizen Alkoholfrei, weizenbier, densité primitive de moût 12,8%, vol. &lt;0,5%
